--- a/Civilworks cost/Expenditure Preparations/Dpp_allocation-2020-11-03.xlsx
+++ b/Civilworks cost/Expenditure Preparations/Dpp_allocation-2020-11-03.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HFMLIP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_26_07_2020\cmis6\Civilworks cost\Expenditure Preparations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20055" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20052" windowHeight="7692"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -433,12 +433,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -453,9 +459,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,18 +767,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D70"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,7 +804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -823,7 +830,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -849,7 +856,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -875,7 +882,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -901,7 +908,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -927,7 +934,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -953,7 +960,7 @@
         <v>259627000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -979,7 +986,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1031,7 +1038,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1057,7 +1064,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1083,7 +1090,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1109,7 +1116,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1161,7 +1168,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1187,7 +1194,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1213,7 +1220,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1239,7 +1246,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1265,7 +1272,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1291,7 +1298,7 @@
         <v>23854000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>39841000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1343,7 +1350,7 @@
         <v>253334000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1369,7 +1376,7 @@
         <v>132168000</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1447,7 +1454,7 @@
         <v>790140000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1499,7 +1506,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1525,7 +1532,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1551,7 +1558,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1577,7 +1584,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>170000000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1629,7 +1636,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1655,7 +1662,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1681,7 +1688,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1733,7 +1740,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1785,7 +1792,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1811,7 +1818,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1837,7 +1844,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1863,7 +1870,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1889,7 +1896,7 @@
         <v>70250000</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1915,7 +1922,7 @@
         <v>6825000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1941,7 +1948,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1967,7 +1974,7 @@
         <v>897000</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1993,7 +2000,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2019,7 +2026,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2045,7 +2052,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2071,7 +2078,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>1375000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2149,7 +2156,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2175,7 +2182,7 @@
         <v>525000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2201,7 +2208,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2227,7 +2234,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2253,7 +2260,7 @@
         <v>2400000000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2263,7 +2270,7 @@
       <c r="C58" t="s">
         <v>31</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E58">
@@ -2279,7 +2286,7 @@
         <v>126100000</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2289,7 +2296,7 @@
       <c r="C59" t="s">
         <v>29</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E59">
@@ -2305,7 +2312,7 @@
         <v>151500000</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2315,7 +2322,7 @@
       <c r="C60" t="s">
         <v>27</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E60">
@@ -2331,7 +2338,7 @@
         <v>2031100000</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2341,7 +2348,7 @@
       <c r="C61" t="s">
         <v>25</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E61">
@@ -2357,7 +2364,7 @@
         <v>972900000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2367,7 +2374,7 @@
       <c r="C62" t="s">
         <v>23</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E62">
@@ -2383,7 +2390,7 @@
         <v>251500000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2393,7 +2400,7 @@
       <c r="C63" t="s">
         <v>21</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E63">
@@ -2409,7 +2416,7 @@
         <v>255000000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2419,7 +2426,7 @@
       <c r="C64" t="s">
         <v>19</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E64">
@@ -2435,7 +2442,7 @@
         <v>178500000</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2445,7 +2452,7 @@
       <c r="C65" t="s">
         <v>17</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E65">
@@ -2461,7 +2468,7 @@
         <v>1195250000</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2471,7 +2478,7 @@
       <c r="C66" t="s">
         <v>15</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E66">
@@ -2487,7 +2494,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2497,7 +2504,7 @@
       <c r="C67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E67">
@@ -2513,7 +2520,7 @@
         <v>138000000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2539,7 +2546,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2565,7 +2572,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>

--- a/Civilworks cost/Expenditure Preparations/Dpp_allocation-2020-11-03.xlsx
+++ b/Civilworks cost/Expenditure Preparations/Dpp_allocation-2020-11-03.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HFMLIP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Expenditure Preparations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20055" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20055" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -761,13 +761,13 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D70"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.85546875" customWidth="1"/>
     <col min="4" max="4" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
